--- a/occupations/occupations_gender_ttest_hu.xlsx
+++ b/occupations/occupations_gender_ttest_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>marg_significant</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>overall_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>occupation_label</t>
         </is>
@@ -496,12 +501,15 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.232323232323232</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nővér</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;nővér+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -526,10 +534,13 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.156565656565657</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>kozmetikus</t>
         </is>
@@ -556,10 +567,13 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.686868686868687</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>házvezető</t>
         </is>
@@ -586,10 +600,13 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.424242424242424</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>légiutas-kísérő</t>
         </is>
@@ -616,10 +633,13 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.212121212121212</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>takarító</t>
         </is>
@@ -646,10 +666,13 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.03030303030303</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>modell</t>
         </is>
@@ -676,10 +699,13 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.03030303030303</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>gondozó</t>
         </is>
@@ -706,10 +732,13 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.02020202020202</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>pénztáros</t>
         </is>
@@ -736,10 +765,13 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9646464646464648</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>HR-es</t>
         </is>
@@ -766,10 +798,13 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.9545454545454546</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>bolti eladó</t>
         </is>
@@ -796,10 +831,13 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9343434343434343</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>fodrász</t>
         </is>
@@ -826,10 +864,13 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.7070707070707071</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>recepciós</t>
         </is>
@@ -856,10 +897,13 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.6414141414141414</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>dietetikus</t>
         </is>
@@ -886,10 +930,13 @@
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4595959595959596</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>könyvelő</t>
         </is>
@@ -916,10 +963,13 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4141414141414141</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>ápoló</t>
         </is>
@@ -946,10 +996,13 @@
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>felszolgáló</t>
         </is>
@@ -976,12 +1029,15 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PR munkatárs</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;PR munkatárs+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1006,10 +1062,13 @@
       <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>jegyárus</t>
         </is>
@@ -1036,10 +1095,13 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.04545454545454546</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>tanár</t>
         </is>
@@ -1062,10 +1124,13 @@
       <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>diák</t>
         </is>
@@ -1092,10 +1157,13 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.2575757575757576</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>titkár</t>
         </is>
@@ -1122,10 +1190,13 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.2575757575757576</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>bíró</t>
         </is>
@@ -1152,10 +1223,13 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.3939393939393939</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>pincér</t>
         </is>
@@ -1182,10 +1256,13 @@
       <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>-0.3939393939393939</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>tudós</t>
         </is>
@@ -1212,10 +1289,13 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.5050505050505051</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>orvos</t>
         </is>
@@ -1242,10 +1322,13 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>-0.595959595959596</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>menedzser</t>
         </is>
@@ -1272,10 +1355,13 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>-0.6414141414141414</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>ügyész</t>
         </is>
@@ -1302,10 +1388,13 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>-0.7424242424242424</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>rendező</t>
         </is>
@@ -1332,10 +1421,13 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>-0.797979797979798</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>kertész</t>
         </is>
@@ -1362,10 +1454,13 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>-0.8282828282828283</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>kórboncnok</t>
         </is>
@@ -1392,10 +1487,13 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>-0.8636363636363636</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>professzor</t>
         </is>
@@ -1422,10 +1520,13 @@
       <c r="F33" t="b">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>-1.02020202020202</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>szakács</t>
         </is>
@@ -1452,10 +1553,13 @@
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>-1.055555555555556</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>mérnök</t>
         </is>
@@ -1482,10 +1586,13 @@
       <c r="F35" t="b">
         <v>0</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>-1.111111111111111</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>vízimentő</t>
         </is>
@@ -1512,12 +1619,15 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
         <v>-1.171717171717172</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>vezérigazgató</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;vezérigazgató+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1652,15 @@
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
         <v>-1.287878787878788</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>építész</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;építész+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1685,15 @@
       <c r="F38" t="b">
         <v>0</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
         <v>-1.333333333333333</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>rendőr</t>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;rendőr+&lt;/b&gt;</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1718,13 @@
       <c r="F39" t="b">
         <v>0</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>-1.338383838383838</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>munkás</t>
         </is>
@@ -1632,10 +1751,13 @@
       <c r="F40" t="b">
         <v>0</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>-1.368686868686869</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>programozó</t>
         </is>
@@ -1662,10 +1784,13 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>-1.414141414141414</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>földműves</t>
         </is>
@@ -1692,10 +1817,13 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>-1.641414141414141</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>pilóta</t>
         </is>
@@ -1722,10 +1850,13 @@
       <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>-1.772727272727273</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>katona</t>
         </is>
@@ -1752,10 +1883,13 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>-1.898989898989899</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>biztonsági őr</t>
         </is>
@@ -1782,10 +1916,13 @@
       <c r="F45" t="b">
         <v>0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>-2.181818181818182</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>tűzoltó</t>
         </is>
